--- a/PE_129회.xlsx
+++ b/PE_129회.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>토픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클라우드컴퓨팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>품질</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블록체인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NFT
 OpenSea</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,11 +150,6 @@
   <si>
     <t>양자컴퓨팅 - 성능,제어, 표준화
 양자보안 - 실용화 사례</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5G 고도화
-6G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모빌리티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자율주행
 UAM(urban air mobility)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +194,50 @@
 Federated Learning (연합학습)
 ModelOps
 AIaaS  AWS Azure GCP Lex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딥러닝 기술요소 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G 고도화
+6G
+동향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTT 시장
+시스템 및 이슈사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모빌리티
+자율주행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재난대응 및 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드컴퓨팅
+시스템 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경망HW
+GPU 뉴로모픽칩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">블록체인
+동향 및 기술
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타버스 XR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +323,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,11 +624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -619,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -638,111 +677,141 @@
     </row>
     <row r="4" spans="1:4" ht="87">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="34.799999999999997">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="121.8">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.799999999999997">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="69.599999999999994">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="52.2">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="156.6">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.799999999999997">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="121.8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34.799999999999997">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="52.2">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="52.2">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="69.599999999999994">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34.799999999999997">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="156.6">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="34.799999999999997">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="17" spans="1:1" ht="34.799999999999997">
+      <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.799999999999997">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.799999999999997">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="52.2">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
